--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.6919962220318</v>
+        <v>335.6949181949575</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.4267783839368</v>
+        <v>459.3125968889084</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.123591113625</v>
+        <v>415.4764472911087</v>
       </c>
       <c r="AD2" t="n">
-        <v>262691.9962220318</v>
+        <v>335694.9181949575</v>
       </c>
       <c r="AE2" t="n">
-        <v>359426.7783839368</v>
+        <v>459312.5968889084</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.5335604434451e-06</v>
+        <v>2.837488328625718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>325123.591113625</v>
+        <v>415476.4472911087</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.2673030151205</v>
+        <v>238.0497054698326</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.963873869273</v>
+        <v>325.7101090354832</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.2487252053448</v>
+        <v>294.6247933662427</v>
       </c>
       <c r="AD3" t="n">
-        <v>189267.3030151206</v>
+        <v>238049.7054698326</v>
       </c>
       <c r="AE3" t="n">
-        <v>258963.873869273</v>
+        <v>325710.1090354833</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.937415221796832e-06</v>
+        <v>3.584725403584733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.845052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>234248.7252053448</v>
+        <v>294624.7933662427</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.3176551904905</v>
+        <v>222.9294654446103</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.5091061837098</v>
+        <v>305.0219295750732</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.7461318392386</v>
+        <v>275.9110647174853</v>
       </c>
       <c r="AD4" t="n">
-        <v>174317.6551904905</v>
+        <v>222929.4654446103</v>
       </c>
       <c r="AE4" t="n">
-        <v>238509.1061837098</v>
+        <v>305021.9295750732</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.074896706277914e-06</v>
+        <v>3.839102144511134e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.32421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>215746.1318392385</v>
+        <v>275911.0647174853</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.6741945886064</v>
+        <v>223.2860048427263</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.9969391176199</v>
+        <v>305.5097625089833</v>
       </c>
       <c r="AC5" t="n">
-        <v>216.1874066826142</v>
+        <v>276.352339560861</v>
       </c>
       <c r="AD5" t="n">
-        <v>174674.1945886064</v>
+        <v>223286.0048427263</v>
       </c>
       <c r="AE5" t="n">
-        <v>238996.9391176199</v>
+        <v>305509.7625089833</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.074686632702307e-06</v>
+        <v>3.838713453395966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.32421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>216187.4066826142</v>
+        <v>276352.339560861</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.5355477430543</v>
+        <v>270.2687675520715</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.4322687116394</v>
+        <v>369.7936511812571</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.8092592066262</v>
+        <v>334.5010641211663</v>
       </c>
       <c r="AD2" t="n">
-        <v>211535.5477430543</v>
+        <v>270268.7675520715</v>
       </c>
       <c r="AE2" t="n">
-        <v>289432.2687116395</v>
+        <v>369793.6511812572</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.77855608954703e-06</v>
+        <v>3.390202395504031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>261809.2592066262</v>
+        <v>334501.0641211664</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.8345303212244</v>
+        <v>211.7187866515005</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.5338763716441</v>
+        <v>289.6829842701055</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.0092397495828</v>
+        <v>262.0360468240739</v>
       </c>
       <c r="AD3" t="n">
-        <v>164834.5303212244</v>
+        <v>211718.7866515005</v>
       </c>
       <c r="AE3" t="n">
-        <v>225533.8763716441</v>
+        <v>289682.9842701055</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.147103567651709e-06</v>
+        <v>4.092710767587852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.32421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>204009.2397495828</v>
+        <v>262036.0468240739</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.7568248083314</v>
+        <v>210.6410811386075</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.0593121438929</v>
+        <v>288.2084200423544</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.6754058621638</v>
+        <v>260.702212936655</v>
       </c>
       <c r="AD4" t="n">
-        <v>163756.8248083314</v>
+        <v>210641.0811386075</v>
       </c>
       <c r="AE4" t="n">
-        <v>224059.3121438929</v>
+        <v>288208.4200423544</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.161784617686935e-06</v>
+        <v>4.120695114716659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>202675.4058621638</v>
+        <v>260702.2129366549</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.2323883487325</v>
+        <v>180.0861583134954</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.1356521212238</v>
+        <v>246.4018266449982</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.0848109363825</v>
+        <v>222.8855821372068</v>
       </c>
       <c r="AD2" t="n">
-        <v>138232.3883487325</v>
+        <v>180086.1583134954</v>
       </c>
       <c r="AE2" t="n">
-        <v>189135.6521212238</v>
+        <v>246401.8266449982</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.317636550039865e-06</v>
+        <v>4.935959319299199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.571614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>171084.8109363825</v>
+        <v>222885.5821372068</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.4671293847923</v>
+        <v>193.1837213690009</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.5075204485471</v>
+        <v>264.322490241233</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.9896097251036</v>
+        <v>239.095922751632</v>
       </c>
       <c r="AD2" t="n">
-        <v>149467.1293847923</v>
+        <v>193183.7213690009</v>
       </c>
       <c r="AE2" t="n">
-        <v>204507.5204485471</v>
+        <v>264322.490241233</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.245975815358428e-06</v>
+        <v>4.560107410129637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>184989.6097251036</v>
+        <v>239095.922751632</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.5507114353058</v>
+        <v>191.2673034195144</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.885392863668</v>
+        <v>261.700362656354</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.6177343167454</v>
+        <v>236.7240473432738</v>
       </c>
       <c r="AD3" t="n">
-        <v>147550.7114353058</v>
+        <v>191267.3034195144</v>
       </c>
       <c r="AE3" t="n">
-        <v>201885.392863668</v>
+        <v>261700.362656354</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.279639805062193e-06</v>
+        <v>4.628456947935397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.36328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>182617.7343167454</v>
+        <v>236724.0473432738</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.4374787473897</v>
+        <v>182.4992385232132</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.2068011513021</v>
+        <v>249.7035094455178</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.9126783748153</v>
+        <v>225.8721569651868</v>
       </c>
       <c r="AD2" t="n">
-        <v>132437.4787473897</v>
+        <v>182499.2385232132</v>
       </c>
       <c r="AE2" t="n">
-        <v>181206.8011513021</v>
+        <v>249703.5094455178</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.293055607576909e-06</v>
+        <v>5.106186949186032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>163912.6783748153</v>
+        <v>225872.1569651868</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.6107355543215</v>
+        <v>280.1197463732428</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.268270446667</v>
+        <v>383.2721949988972</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.8931934076545</v>
+        <v>346.6932346341059</v>
       </c>
       <c r="AD2" t="n">
-        <v>232610.7355543215</v>
+        <v>280119.7463732428</v>
       </c>
       <c r="AE2" t="n">
-        <v>318268.270446667</v>
+        <v>383272.1949988973</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.713499924508804e-06</v>
+        <v>3.239823403449206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.095052083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>287893.1934076545</v>
+        <v>346693.2346341059</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.0700636439831</v>
+        <v>217.4083927537577</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.6973640392677</v>
+        <v>297.4677543469158</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.4890542082288</v>
+        <v>269.0778493707493</v>
       </c>
       <c r="AD3" t="n">
-        <v>170070.0636439831</v>
+        <v>217408.3927537577</v>
       </c>
       <c r="AE3" t="n">
-        <v>232697.3640392677</v>
+        <v>297467.7543469158</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.102881691003333e-06</v>
+        <v>3.97605230076124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>210489.0542082288</v>
+        <v>269077.8493707493</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.2366975748666</v>
+        <v>201.8684780661927</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.4523834673298</v>
+        <v>276.2053574987494</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.7446472206985</v>
+        <v>249.8447058358038</v>
       </c>
       <c r="AD4" t="n">
-        <v>166236.6975748666</v>
+        <v>201868.4780661927</v>
       </c>
       <c r="AE4" t="n">
-        <v>227452.3834673298</v>
+        <v>276205.3574987495</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.145930965703657e-06</v>
+        <v>4.057448305325175e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.259114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>205744.6472206985</v>
+        <v>249844.7058358038</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.3787055398856</v>
+        <v>178.4918101330596</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.704093874104</v>
+        <v>244.2203691268493</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.5035628096902</v>
+        <v>220.9123198628946</v>
       </c>
       <c r="AD2" t="n">
-        <v>139378.7055398856</v>
+        <v>178491.8101330596</v>
       </c>
       <c r="AE2" t="n">
-        <v>190704.093874104</v>
+        <v>244220.3691268493</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.249818181319986e-06</v>
+        <v>5.157858351954733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.287760416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>172503.5628096902</v>
+        <v>220912.3198628946</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.4251159849315</v>
+        <v>229.9210273055382</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.3385799523566</v>
+        <v>314.5880929591303</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.2557400411984</v>
+        <v>284.5642468943656</v>
       </c>
       <c r="AD2" t="n">
-        <v>184425.1159849315</v>
+        <v>229921.0273055382</v>
       </c>
       <c r="AE2" t="n">
-        <v>252338.5799523566</v>
+        <v>314588.0929591303</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.004298592556964e-06</v>
+        <v>3.928397542137021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.079427083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>228255.7400411984</v>
+        <v>284564.2468943656</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.6123592103956</v>
+        <v>201.0229296764308</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.9156950043393</v>
+        <v>275.0484408889154</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.5953199022408</v>
+        <v>248.7982037234693</v>
       </c>
       <c r="AD3" t="n">
-        <v>155612.3592103956</v>
+        <v>201022.9296764308</v>
       </c>
       <c r="AE3" t="n">
-        <v>212915.6950043393</v>
+        <v>275048.4408889154</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.225815332889212e-06</v>
+        <v>4.362567291841456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>192595.3199022408</v>
+        <v>248798.2037234693</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.09714375237</v>
+        <v>248.7659936709593</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.5182279785951</v>
+        <v>340.3726073215266</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.1277163961696</v>
+        <v>307.8879233948164</v>
       </c>
       <c r="AD2" t="n">
-        <v>202097.14375237</v>
+        <v>248765.9936709593</v>
       </c>
       <c r="AE2" t="n">
-        <v>276518.2279785951</v>
+        <v>340372.6073215266</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.850514509198473e-06</v>
+        <v>3.55798994871126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.57421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>250127.7163961696</v>
+        <v>307887.9233948163</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.7148650352596</v>
+        <v>207.1277818986851</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.8971685805845</v>
+        <v>283.4013690264715</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.9104914389311</v>
+        <v>256.353940122988</v>
       </c>
       <c r="AD3" t="n">
-        <v>160714.8650352596</v>
+        <v>207127.7818986851</v>
       </c>
       <c r="AE3" t="n">
-        <v>219897.1685805845</v>
+        <v>283401.3690264715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.182269376027485e-06</v>
+        <v>4.195856053379054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>198910.4914389311</v>
+        <v>256353.940122988</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.1263471517218</v>
+        <v>207.5392640151473</v>
       </c>
       <c r="AB4" t="n">
-        <v>220.4601765656375</v>
+        <v>283.9643770115246</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.4197667320775</v>
+        <v>256.8632154161344</v>
       </c>
       <c r="AD4" t="n">
-        <v>161126.3471517218</v>
+        <v>207539.2640151473</v>
       </c>
       <c r="AE4" t="n">
-        <v>220460.1765656376</v>
+        <v>283964.3770115246</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.181928114592098e-06</v>
+        <v>4.19519990896573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>199419.7667320775</v>
+        <v>256863.2154161344</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.0155257900173</v>
+        <v>311.4798029868682</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.4505164091731</v>
+        <v>426.1804079657141</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.6720811590113</v>
+        <v>385.5063479774249</v>
       </c>
       <c r="AD2" t="n">
-        <v>251015.5257900173</v>
+        <v>311479.8029868682</v>
       </c>
       <c r="AE2" t="n">
-        <v>343450.5164091731</v>
+        <v>426180.4079657141</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.599275626694352e-06</v>
+        <v>2.979329193193926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.576822916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>310672.0811590113</v>
+        <v>385506.3479774249</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.0783858817524</v>
+        <v>231.4498076392299</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.4959244116489</v>
+        <v>316.6798376567145</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.588944959112</v>
+        <v>286.4563584137952</v>
       </c>
       <c r="AD3" t="n">
-        <v>183078.3858817524</v>
+        <v>231449.8076392299</v>
       </c>
       <c r="AE3" t="n">
-        <v>250495.9244116489</v>
+        <v>316679.8376567145</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.987677522233322e-06</v>
+        <v>3.702892465688082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>226588.944959112</v>
+        <v>286456.3584137952</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.4879173199878</v>
+        <v>219.6887468768731</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.6373339900659</v>
+        <v>300.5878354602846</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.2438761496883</v>
+        <v>271.9001543217205</v>
       </c>
       <c r="AD4" t="n">
-        <v>171487.9173199878</v>
+        <v>219688.7468768731</v>
       </c>
       <c r="AE4" t="n">
-        <v>234637.3339900658</v>
+        <v>300587.8354602846</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.100612408263553e-06</v>
+        <v>3.913281592655126e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>212243.8761496883</v>
+        <v>271900.1543217205</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.2619714959253</v>
+        <v>201.7439054523609</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.1727673091577</v>
+        <v>276.0349117527489</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.6369803941089</v>
+        <v>249.6905271925794</v>
       </c>
       <c r="AD2" t="n">
-        <v>157261.9714959253</v>
+        <v>201743.9054523609</v>
       </c>
       <c r="AE2" t="n">
-        <v>215172.7673091577</v>
+        <v>276034.9117527489</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.16174088132074e-06</v>
+        <v>4.333203878725746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.662760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>194636.9803941089</v>
+        <v>249690.5271925794</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.092829751644</v>
+        <v>194.4041715074874</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.3636312944251</v>
+        <v>265.9923639631695</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.7640145534104</v>
+        <v>240.6064260692299</v>
       </c>
       <c r="AD3" t="n">
-        <v>150092.829751644</v>
+        <v>194404.1715074874</v>
       </c>
       <c r="AE3" t="n">
-        <v>205363.6312944251</v>
+        <v>265992.3639631695</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266254210949401e-06</v>
+        <v>4.542700571524917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.311197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>185764.0145534104</v>
+        <v>240606.4260692298</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.2298878874352</v>
+        <v>183.6402917143306</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.2369632304214</v>
+        <v>251.2647487613179</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.7946986695459</v>
+        <v>227.2843937919005</v>
       </c>
       <c r="AD2" t="n">
-        <v>141229.8878874352</v>
+        <v>183640.2917143306</v>
       </c>
       <c r="AE2" t="n">
-        <v>193236.9632304214</v>
+        <v>251264.7487613179</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.309327204737103e-06</v>
+        <v>4.831256932822929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>174794.6986695458</v>
+        <v>227284.3937919005</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.4619410098001</v>
+        <v>176.5234818213756</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.3450038485881</v>
+        <v>241.5272154942882</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.6559368146776</v>
+        <v>218.4761970331593</v>
       </c>
       <c r="AD2" t="n">
-        <v>135461.9410098002</v>
+        <v>176523.4818213756</v>
       </c>
       <c r="AE2" t="n">
-        <v>185345.0038485881</v>
+        <v>241527.2154942882</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.312094393369153e-06</v>
+        <v>5.026159737479146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>167655.9368146776</v>
+        <v>218476.1970331593</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.269638500048</v>
+        <v>183.7461843506786</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.4501311878429</v>
+        <v>251.4096357380224</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.6555923517303</v>
+        <v>227.4154529588987</v>
       </c>
       <c r="AD2" t="n">
-        <v>136269.638500048</v>
+        <v>183746.1843506786</v>
       </c>
       <c r="AE2" t="n">
-        <v>186450.1311878429</v>
+        <v>251409.6357380225</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.151075839328427e-06</v>
+        <v>5.116391884425676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.912760416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>168655.5923517303</v>
+        <v>227415.4529588987</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.6596744536353</v>
+        <v>239.6674483122284</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.9737102491976</v>
+        <v>327.9235761622253</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.6849912360296</v>
+        <v>296.6270102970298</v>
       </c>
       <c r="AD2" t="n">
-        <v>193659.6744536353</v>
+        <v>239667.4483122284</v>
       </c>
       <c r="AE2" t="n">
-        <v>264973.7102491976</v>
+        <v>327923.5761622253</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.918595569432478e-06</v>
+        <v>3.723184727041962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.352864583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>239684.9912360296</v>
+        <v>296627.0102970297</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.3893864779964</v>
+        <v>204.3118194820179</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.7153462256652</v>
+        <v>279.5484450164954</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.0323377438486</v>
+        <v>252.8687337729098</v>
       </c>
       <c r="AD3" t="n">
-        <v>158389.3864779964</v>
+        <v>204311.8194820179</v>
       </c>
       <c r="AE3" t="n">
-        <v>216715.3462256652</v>
+        <v>279548.4450164954</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.199721729848096e-06</v>
+        <v>4.268732023985312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.28515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>196032.3377438486</v>
+        <v>252868.7337729099</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.1968545610932</v>
+        <v>301.9604158811264</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.3844213814485</v>
+        <v>413.1555625619189</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.7575573058583</v>
+        <v>373.7245755384825</v>
       </c>
       <c r="AD2" t="n">
-        <v>242196.8545610932</v>
+        <v>301960.4158811264</v>
       </c>
       <c r="AE2" t="n">
-        <v>331384.4213814485</v>
+        <v>413155.5625619189</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.651224182890907e-06</v>
+        <v>3.098344225516746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.35546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>299757.5573058582</v>
+        <v>373724.5755384825</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.5206052426641</v>
+        <v>224.4679280591614</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.5232796323895</v>
+        <v>307.1269219964813</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.4726368043961</v>
+        <v>277.8151596165703</v>
       </c>
       <c r="AD3" t="n">
-        <v>176520.6052426641</v>
+        <v>224467.9280591613</v>
       </c>
       <c r="AE3" t="n">
-        <v>241523.2796323895</v>
+        <v>307126.9219964813</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043307486109751e-06</v>
+        <v>3.834046288893017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.55859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>218472.6368043961</v>
+        <v>277815.1596165703</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.0427787605195</v>
+        <v>216.8195093764245</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.291787541103</v>
+        <v>296.6620181303481</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.2176239583095</v>
+        <v>268.3490114878326</v>
       </c>
       <c r="AD4" t="n">
-        <v>169042.7787605195</v>
+        <v>216819.5093764245</v>
       </c>
       <c r="AE4" t="n">
-        <v>231291.787541103</v>
+        <v>296662.0181303481</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.122450095145757e-06</v>
+        <v>3.982548865490298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>209217.6239583095</v>
+        <v>268349.0114878326</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.1562441256899</v>
+        <v>198.8719575958357</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.5551299892965</v>
+        <v>272.1053859940558</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.55548249565</v>
+        <v>246.1360298571707</v>
       </c>
       <c r="AD2" t="n">
-        <v>153156.2441256899</v>
+        <v>198871.9575958357</v>
       </c>
       <c r="AE2" t="n">
-        <v>209555.1299892965</v>
+        <v>272105.3859940558</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.908767229723307e-06</v>
+        <v>4.773681986086868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.39713541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>189555.48249565</v>
+        <v>246136.0298571707</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.0431900700859</v>
+        <v>187.1283857668648</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.086247390855</v>
+        <v>256.0373129278418</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.2766125522131</v>
+        <v>231.6014711327088</v>
       </c>
       <c r="AD2" t="n">
-        <v>144043.1900700859</v>
+        <v>187128.3857668648</v>
       </c>
       <c r="AE2" t="n">
-        <v>197086.247390855</v>
+        <v>256037.3129278418</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.300227139311801e-06</v>
+        <v>4.736819697901563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>178276.6125522131</v>
+        <v>231601.4711327088</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.0904494010758</v>
+        <v>187.1756450978547</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.1509096924499</v>
+        <v>256.1019752294367</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.3351035744979</v>
+        <v>231.6599621549936</v>
       </c>
       <c r="AD3" t="n">
-        <v>144090.4494010758</v>
+        <v>187175.6450978547</v>
       </c>
       <c r="AE3" t="n">
-        <v>197150.9096924499</v>
+        <v>256101.9752294367</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.305191451549488e-06</v>
+        <v>4.74704262397357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.376302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>178335.1035744979</v>
+        <v>231659.9621549936</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.1361565358798</v>
+        <v>210.1813858509734</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.9465746653448</v>
+        <v>287.5794446694889</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.3825506973585</v>
+        <v>260.1332660906031</v>
       </c>
       <c r="AD2" t="n">
-        <v>165136.1565358798</v>
+        <v>210181.3858509734</v>
       </c>
       <c r="AE2" t="n">
-        <v>225946.5746653448</v>
+        <v>287579.4446694889</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.078936257065903e-06</v>
+        <v>4.118755481908226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.877604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>204382.5506973585</v>
+        <v>260133.2660906031</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.0711856472063</v>
+        <v>197.9458227617077</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.4387492265201</v>
+        <v>270.8382074558173</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.4502089495315</v>
+        <v>244.989789060125</v>
       </c>
       <c r="AD3" t="n">
-        <v>153071.1856472063</v>
+        <v>197945.8227617077</v>
       </c>
       <c r="AE3" t="n">
-        <v>209438.7492265201</v>
+        <v>270838.2074558173</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.241693146133536e-06</v>
+        <v>4.441206844612221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.3046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>189450.2089495315</v>
+        <v>244989.789060125</v>
       </c>
     </row>
   </sheetData>
